--- a/data/foo.xlsx
+++ b/data/foo.xlsx
@@ -462,50 +462,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -513,50 +513,50 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -567,67 +567,67 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/foo.xlsx
+++ b/data/foo.xlsx
@@ -468,75 +468,75 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
         <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,50 +547,50 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>2</v>
@@ -607,27 +607,27 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
